--- a/com.justdial/src/main/resources/POMResources/Testdata.xlsx
+++ b/com.justdial/src/main/resources/POMResources/Testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DA54B9DE-F4E4-41EC-A0DD-2BB9AEE64636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7F27F95A-3E35-49B7-9935-B6F8D8A993E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{0F34736B-FE99-4DB2-A4E4-8D4E9956C776}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{0F34736B-FE99-4DB2-A4E4-8D4E9956C776}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
     <t>phonenumber</t>
   </si>
   <si>
-    <t>8248u7247i</t>
-  </si>
-  <si>
     <t>Landline</t>
+  </si>
+  <si>
+    <t>8248a7247i</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>273146</v>
